--- a/data.xlsx
+++ b/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19180" windowHeight="7250" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19180" windowHeight="7250"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>"lat"</t>
   </si>
@@ -260,7 +260,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Author" refreshedDate="42369.421569907405" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="72">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:G73" sheet="data"/>
+    <worksheetSource ref="A1:G73" sheet="data" r:id="rId2"/>
   </cacheSource>
   <cacheFields count="7">
     <cacheField name="&quot;lat&quot;" numFmtId="0">
@@ -953,7 +953,7 @@
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:D8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <location ref="A2:D7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -1284,9 +1284,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G75"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3218,11 +3216,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:E15"/>
+  <dimension ref="A2:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3233,139 +3229,145 @@
     <col min="5" max="5" width="12.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+    </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7">
+        <v>8.7462298226983321E-4</v>
+      </c>
+      <c r="C3" s="7">
+        <v>8.7450000000188766E-4</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1.4666666672269457E-5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" s="7">
-        <v>8.7462298226983321E-4</v>
+        <v>8.5168962062336171E-4</v>
       </c>
       <c r="C4" s="7">
-        <v>8.7450000000188766E-4</v>
+        <v>8.5155555555616047E-4</v>
       </c>
       <c r="D4" s="7">
-        <v>1.4666666672269457E-5</v>
+        <v>1.5111111110854836E-5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" s="7">
-        <v>8.5168962062336171E-4</v>
+        <v>8.6668096102473309E-4</v>
       </c>
       <c r="C5" s="7">
-        <v>8.5155555555616047E-4</v>
+        <v>8.66574074073867E-4</v>
       </c>
       <c r="D5" s="7">
-        <v>1.5111111110854836E-5</v>
+        <v>1.3611111114641972E-5</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" s="7">
-        <v>8.6668096102473309E-4</v>
+        <v>8.8096012780317285E-4</v>
       </c>
       <c r="C6" s="7">
-        <v>8.66574074073867E-4</v>
+        <v>8.8080303029869356E-4</v>
       </c>
       <c r="D6" s="7">
-        <v>1.3611111114641972E-5</v>
+        <v>1.6636363653788067E-5</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
-        <v>4</v>
+      <c r="A7" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="B7" s="7">
-        <v>8.8096012780317285E-4</v>
+        <v>3.4739536917211006E-3</v>
       </c>
       <c r="C7" s="7">
-        <v>8.8080303029869356E-4</v>
+        <v>3.4734326599306087E-3</v>
       </c>
       <c r="D7" s="7">
-        <v>1.6636363653788067E-5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="7">
-        <v>3.4739536917211006E-3</v>
-      </c>
-      <c r="C8" s="7">
-        <v>3.4734326599306087E-3</v>
-      </c>
-      <c r="D8" s="7">
         <v>6.0025252551554331E-5</v>
       </c>
     </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E11" s="8" t="s">
-        <v>12</v>
+      <c r="C11">
+        <v>8.7450000000188766E-4</v>
+      </c>
+      <c r="D11">
+        <v>1.4666666672269457E-5</v>
+      </c>
+      <c r="E11">
+        <f>SQRT(C11^2+D11^2)</f>
+        <v>8.7462298226983321E-4</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C12">
-        <v>8.7450000000188766E-4</v>
+        <v>8.5155555555616047E-4</v>
       </c>
       <c r="D12">
-        <v>1.4666666672269457E-5</v>
+        <v>1.5111111110854836E-5</v>
       </c>
       <c r="E12">
-        <f>SQRT(C12^2+D12^2)</f>
-        <v>8.7462298226983321E-4</v>
+        <f t="shared" ref="E12:E14" si="0">SQRT(C12^2+D12^2)</f>
+        <v>8.5168962062336161E-4</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C13">
-        <v>8.5155555555616047E-4</v>
+        <v>8.66574074073867E-4</v>
       </c>
       <c r="D13">
-        <v>1.5111111110854836E-5</v>
+        <v>1.3611111114641972E-5</v>
       </c>
       <c r="E13">
-        <f t="shared" ref="E13:E15" si="0">SQRT(C13^2+D13^2)</f>
-        <v>8.5168962062336161E-4</v>
+        <f t="shared" si="0"/>
+        <v>8.666809610247332E-4</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C14">
-        <v>8.66574074073867E-4</v>
+        <v>8.8080303029869356E-4</v>
       </c>
       <c r="D14">
-        <v>1.3611111114641972E-5</v>
+        <v>1.6636363653788067E-5</v>
       </c>
       <c r="E14">
-        <f t="shared" si="0"/>
-        <v>8.666809610247332E-4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C15">
-        <v>8.8080303029869356E-4</v>
-      </c>
-      <c r="D15">
-        <v>1.6636363653788067E-5</v>
-      </c>
-      <c r="E15">
         <f t="shared" si="0"/>
         <v>8.8096012780317274E-4</v>
       </c>
